--- a/public/a.xlsx
+++ b/public/a.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2000" windowHeight="2000" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="28060" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="你好" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
   <si>
     <t>排名</t>
   </si>
@@ -818,30 +819,395 @@
   </si>
   <si>
     <t>15ml</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>的算法</t>
+  </si>
+  <si>
+    <t>阿斯达</t>
+  </si>
+  <si>
+    <t>奥维</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -849,24 +1215,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1188,16 +1844,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M86"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1279,7 +1940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1320,7 +1981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1361,20 +2022,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
@@ -1402,7 +2063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1443,7 +2104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1484,7 +2145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1525,7 +2186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1566,7 +2227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1607,7 +2268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1648,7 +2309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1689,7 +2350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1730,7 +2391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1771,7 +2432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1812,7 +2473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1853,7 +2514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1894,7 +2555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1935,7 +2596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1976,7 +2637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2017,7 +2678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2058,7 +2719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2099,7 +2760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2140,7 +2801,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2181,7 +2842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2222,7 +2883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2263,7 +2924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2304,7 +2965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2345,7 +3006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2386,7 +3047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2427,7 +3088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2468,7 +3129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2509,7 +3170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2550,7 +3211,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2591,7 +3252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2632,7 +3293,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2673,7 +3334,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2714,7 +3375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2755,7 +3416,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2796,7 +3457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2837,7 +3498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2878,7 +3539,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2919,7 +3580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2960,7 +3621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3001,7 +3662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3042,7 +3703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3083,7 +3744,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3124,7 +3785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3165,7 +3826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3206,7 +3867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3247,7 +3908,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3288,7 +3949,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3329,7 +3990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3370,7 +4031,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3411,7 +4072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3452,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3493,7 +4154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3534,7 +4195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3575,7 +4236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3616,7 +4277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3657,7 +4318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3698,7 +4359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3739,7 +4400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3780,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3821,7 +4482,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3862,7 +4523,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3903,7 +4564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3944,7 +4605,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3985,7 +4646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4026,7 +4687,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4067,7 +4728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4108,7 +4769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4149,7 +4810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4190,7 +4851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4231,7 +4892,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4272,7 +4933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4313,7 +4974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4354,7 +5015,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4395,7 +5056,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4436,7 +5097,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4477,7 +5138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4518,7 +5179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4559,7 +5220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4600,7 +5261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4641,7 +5302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4682,7 +5343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4724,7 +5385,60 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>234</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>